--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,55 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Rap God</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Purple Lamborghini (with Rick Ross)</t>
-  </si>
-  <si>
-    <t>You Can't Stop Me</t>
-  </si>
-  <si>
-    <t>All The Way Up (Remix)</t>
-  </si>
-  <si>
-    <t>Thunderstruck</t>
-  </si>
-  <si>
-    <t>Bass Drops</t>
-  </si>
-  <si>
-    <t>Forever</t>
-  </si>
-  <si>
-    <t>Last Resort</t>
-  </si>
-  <si>
-    <t>Burnin</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,92 +433,214 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mercy.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Five Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pursuit Of Happiness - Extended Steve Aoki Remix (Explicit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patiently Waiting</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antidote</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Final Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Summer Heat - Radio Mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Closer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Too Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kings of Summer (feat. Quinn XCII) - Single Version</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>This Girl (Kungs Vs. Cookin' On 3 Burners)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Half</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F*** Apologies. (feat. Wiz Khalifa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Broccoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Miss You</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bikini Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1st Day Out Tha Feds</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>One Dance</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,201 +442,101 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mercy.1</t>
+          <t>Broccoli</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Five Hours</t>
+          <t>Miss You</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pursuit Of Happiness - Extended Steve Aoki Remix (Explicit)</t>
+          <t>Bikini Body</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>1st Day Out Tha Feds</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patiently Waiting</t>
+          <t>One Dance</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Antidote</t>
+          <t>Break Ya Neck</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Final Song</t>
+          <t>New Level</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Guwop Home (feat. Young Thug)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Summer Heat - Radio Mix</t>
+          <t>Hercules</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Closer</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Too Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Kings of Summer (feat. Quinn XCII) - Single Version</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>This Girl (Kungs Vs. Cookin' On 3 Burners)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>The Half</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>F*** Apologies. (feat. Wiz Khalifa)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Broccoli</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Miss You</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Bikini Body</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1st Day Out Tha Feds</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>One Dance</t>
+          <t>In Da Club</t>
         </is>
       </c>
     </row>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -442,101 +442,101 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Crank It (feat. Lil' Jon)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miss You</t>
+          <t>Been A While</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bikini Body</t>
+          <t>Work from Home</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1st Day Out Tha Feds</t>
+          <t>Never Be Like You (Martin Solveig Remix) [feat. Kai]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>One Dance</t>
+          <t>Anywhere</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Break Ya Neck</t>
+          <t>7/11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Level</t>
+          <t>SexyBack</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guwop Home (feat. Young Thug)</t>
+          <t>Worth It</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hercules</t>
+          <t>Temperature</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>126</v>
+        <v>353</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>In Da Club</t>
+          <t>Black Widow</t>
         </is>
       </c>
     </row>
